--- a/Subresultados/3103/5%/6_34_Seleccionc.xlsx
+++ b/Subresultados/3103/5%/6_34_Seleccionc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6_SC50" sheetId="1" state="visible" r:id="rId2"/>
@@ -420,10 +420,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4883,11 +4883,11 @@
   </sheetPr>
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9348,10 +9348,10 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13811,11 +13811,11 @@
   </sheetPr>
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
